--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/地图相关表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/地图相关表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B983CD-317A-476A-B66D-64F3C0E6CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85007567-09F2-4105-9D7E-4BD4EACAF5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="2" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/地图相关表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/地图相关表.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85007567-09F2-4105-9D7E-4BD4EACAF5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67800CB-8B45-4481-A280-8F0550D74E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="2" r:id="rId1"/>
     <sheet name="Room" sheetId="4" r:id="rId2"/>
     <sheet name="RpgScene" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -187,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="503">
   <si>
     <t>ID</t>
   </si>
@@ -321,430 +334,412 @@
     <t>区域-第二章开始</t>
   </si>
   <si>
+    <t>镜潮湖公园</t>
+  </si>
+  <si>
+    <t>ui_areas/tmp2</t>
+  </si>
+  <si>
+    <t>_安江市北部的一个小公园，这里由不受天气影响，四季长春。</t>
+  </si>
+  <si>
+    <t>区域-和平酒店大厦第二章</t>
+  </si>
+  <si>
+    <t>和平广场</t>
+  </si>
+  <si>
+    <t>_原名为“馥西尔世纪大厦”，3年前作为世界大战停战协议签署地而正式更名。承接H国各种国际会议活动，是各种看重安全的名流政要的下榻点。</t>
+  </si>
+  <si>
+    <t>区域-天目剧院第二章</t>
+  </si>
+  <si>
+    <t>天目剧院</t>
+  </si>
+  <si>
+    <t>_曾经火热的剧院，经常举行魔术表演，如今已经被划分为【警戒区】之一。</t>
+  </si>
+  <si>
+    <t>区域-昭离公馆第二章</t>
+  </si>
+  <si>
+    <t>区域-槐树里小区第二章</t>
+  </si>
+  <si>
+    <t>槐树里小区</t>
+  </si>
+  <si>
+    <t>ui_areas/apartment</t>
+  </si>
+  <si>
+    <t>_尚未被纳入城市翻新计划的老旧小区，居住在这里的也多是一些老年人。</t>
+  </si>
+  <si>
+    <t>区域-顶石大厦</t>
+  </si>
+  <si>
+    <t>顶石大厦</t>
+  </si>
+  <si>
+    <t>ui_areas/dingshi</t>
+  </si>
+  <si>
+    <t>_坐落于CBD的摩天大楼，科技巨头顶石科技总部，总建筑面积30.2万平方米，建筑主体为地上76层，底下3层。</t>
+  </si>
+  <si>
+    <t>区域-第三章</t>
+  </si>
+  <si>
+    <t>区域-昭离公馆第三章</t>
+  </si>
+  <si>
+    <t>地点-图郎酒店</t>
+  </si>
+  <si>
+    <t>图郎酒店</t>
+  </si>
+  <si>
+    <t>ui_areas/area3</t>
+  </si>
+  <si>
+    <t>ui_areas/tulang</t>
+  </si>
+  <si>
+    <t>_顶石大厦附近的高档新中式五星级酒店，经常有高端商务人士在此办公。</t>
+  </si>
+  <si>
+    <t>副本-泉舜公寓</t>
+  </si>
+  <si>
+    <t>泉舜公寓</t>
+  </si>
+  <si>
+    <t>ui_areas/area2</t>
+  </si>
+  <si>
+    <t>可获得以下异质物开发材料</t>
+  </si>
+  <si>
+    <t>300101|300102|300103</t>
+  </si>
+  <si>
+    <t>_安江市的【异变区】之一，在被STS管控的状态内</t>
+  </si>
+  <si>
+    <t>副本-金夕养老院</t>
+  </si>
+  <si>
+    <t>今夕养老院</t>
+  </si>
+  <si>
+    <t>副本-珑克酒店</t>
+  </si>
+  <si>
+    <t>珑克酒店</t>
+  </si>
+  <si>
+    <t>300201|300202|300203</t>
+  </si>
+  <si>
+    <t>副本-安江大学圣愚楼</t>
+  </si>
+  <si>
+    <t>圣愚楼</t>
+  </si>
+  <si>
+    <t>副本-港口区-忒休斯号</t>
+  </si>
+  <si>
+    <t>港口区-忒休斯号</t>
+  </si>
+  <si>
+    <t>300301|300302|300303</t>
+  </si>
+  <si>
+    <t>装备-天目剧院</t>
+  </si>
+  <si>
+    <t>ui_areas/theater</t>
+  </si>
+  <si>
+    <t>3101|3102|3103|3104|3105|3106|3107</t>
+  </si>
+  <si>
+    <t>可获得以下共生型异质物</t>
+  </si>
+  <si>
+    <t>|700451|700551|700651|701051|701151|701251</t>
+  </si>
+  <si>
+    <t>装备-克雷研究中心</t>
+  </si>
+  <si>
+    <t>克雷研究所</t>
+  </si>
+  <si>
+    <t>ui_areas/kelei</t>
+  </si>
+  <si>
+    <t>3201|3202|3203|3204|3205|3206|3207</t>
+  </si>
+  <si>
+    <t>|700151|700251|700351|700751|700851|700951</t>
+  </si>
+  <si>
+    <t>_科研异质物研究所，同时也是【警戒区】之一，负责该研究所的克雷博士却不知所踪。</t>
+  </si>
+  <si>
+    <t>地点-槐树里小区</t>
+  </si>
+  <si>
+    <t>地点-康新嘉苑</t>
+  </si>
+  <si>
+    <t>康新嘉苑</t>
+  </si>
+  <si>
+    <t>ui_areas/jiayuan</t>
+  </si>
+  <si>
+    <t>_声名显赫的康新集团推出的高端酒店式公寓一期，受到了很多年轻人的欢迎。</t>
+  </si>
+  <si>
+    <t>地点-康新雅苑</t>
+  </si>
+  <si>
+    <t>康新雅苑</t>
+  </si>
+  <si>
+    <t>ui_areas/yayuan</t>
+  </si>
+  <si>
+    <t>_声名显赫的康新集团推出的高端酒店式公寓二期，刚一发售就被抢购一空。</t>
+  </si>
+  <si>
+    <t>地点-皇庭金融中心</t>
+  </si>
+  <si>
+    <t>皇庭金融中心</t>
+  </si>
+  <si>
+    <t>ui_areas/huangting</t>
+  </si>
+  <si>
+    <t>_顶石大厦附近的高端经济中心，和顶石大厦有着千丝万缕的联系。</t>
+  </si>
+  <si>
+    <t>地点-昭离公馆</t>
+  </si>
+  <si>
+    <t>箱庭-镜潮湖公园</t>
+  </si>
+  <si>
+    <t>箱庭-和平广场</t>
+  </si>
+  <si>
+    <t>箱庭-顶石大厦</t>
+  </si>
+  <si>
+    <t>箱庭-图郎酒店</t>
+  </si>
+  <si>
+    <t>箱庭-天江壹号别墅</t>
+  </si>
+  <si>
+    <t>天江壹号</t>
+  </si>
+  <si>
+    <t>建于2035年，是不久前刚刚竣工的临江海岸别墅群，安江市各种达官显贵的主要居住地。</t>
+  </si>
+  <si>
+    <t>箱庭-葡萄日报社</t>
+  </si>
+  <si>
+    <t>葡萄日报社</t>
+  </si>
+  <si>
+    <t>前身为“芒果日报”，战后由原团队重新成立的“葡萄日报社”，主打异质物相关新闻和传说。</t>
+  </si>
+  <si>
+    <t>测试-箱庭地点1</t>
+  </si>
+  <si>
+    <t>箱庭地点1</t>
+  </si>
+  <si>
+    <t>9001 测试-箱庭地点1:箱庭地点1</t>
+  </si>
+  <si>
+    <t>关卡别名</t>
+  </si>
+  <si>
+    <t>所属区域id</t>
+  </si>
+  <si>
+    <t>开启等级</t>
+  </si>
+  <si>
+    <t>关卡名字</t>
+  </si>
+  <si>
+    <t>默认场景名</t>
+  </si>
+  <si>
+    <t>场景背景音乐</t>
+  </si>
+  <si>
+    <t>场景背景音乐音量比例</t>
+  </si>
+  <si>
+    <t>返回roomid</t>
+  </si>
+  <si>
+    <t>返回按钮名称</t>
+  </si>
+  <si>
+    <t>解锁所需线索</t>
+  </si>
+  <si>
+    <t>group_areaId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>scene_name</t>
+  </si>
+  <si>
+    <t>scene_bgm</t>
+  </si>
+  <si>
+    <t>bgm_volumeLevel</t>
+  </si>
+  <si>
+    <t>back_room</t>
+  </si>
+  <si>
+    <t>back_name</t>
+  </si>
+  <si>
+    <t>openClues</t>
+  </si>
+  <si>
+    <t>昭离公馆-地上电梯间</t>
+  </si>
+  <si>
+    <t>电梯间</t>
+  </si>
+  <si>
+    <t>C1_elevator</t>
+  </si>
+  <si>
+    <t>昭离公馆-地下电梯间</t>
+  </si>
+  <si>
+    <t>地下电梯间</t>
+  </si>
+  <si>
+    <t>C1_elevator_basement</t>
+  </si>
+  <si>
+    <t>昭离公馆-异界回廊</t>
+  </si>
+  <si>
+    <t>异界回廊</t>
+  </si>
+  <si>
+    <t>C1_cloister_3D</t>
+  </si>
+  <si>
+    <t>bgm_MythZone</t>
+  </si>
+  <si>
+    <t>昭离公馆-404房间</t>
+  </si>
+  <si>
+    <t>收容间404</t>
+  </si>
+  <si>
+    <t>C1_404_home</t>
+  </si>
+  <si>
+    <t>昭离公馆-凯瑟琳办公室</t>
+  </si>
+  <si>
+    <t>凯瑟琳办公室</t>
+  </si>
+  <si>
+    <t>C1_kaiselin_office</t>
+  </si>
+  <si>
+    <t>昭离公馆-临时用周易房间</t>
+  </si>
+  <si>
+    <t>临时用周易房间</t>
+  </si>
+  <si>
+    <t>C1_Dormitory</t>
+  </si>
+  <si>
+    <t>昭离公馆-杜博士办公室新</t>
+  </si>
+  <si>
+    <t>杜博士办公室</t>
+  </si>
+  <si>
+    <t>C1_du_office</t>
+  </si>
+  <si>
+    <t>序章1</t>
+  </si>
+  <si>
+    <t>C0_kaiselin_office</t>
+  </si>
+  <si>
+    <t>序章2</t>
+  </si>
+  <si>
+    <t>走廊</t>
+  </si>
+  <si>
+    <t>C0_corridor1</t>
+  </si>
+  <si>
+    <t>bgm_Trapped</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>教室</t>
+  </si>
+  <si>
+    <t>C0_du_office</t>
+  </si>
+  <si>
+    <t>序章开始地点</t>
+  </si>
+  <si>
+    <t>序章开头</t>
+  </si>
+  <si>
+    <t>C0_prologue</t>
+  </si>
+  <si>
+    <t>第二章开始-江北公园</t>
+  </si>
+  <si>
     <t>江北公园</t>
   </si>
   <si>
-    <t>ui_areas/tmp2</t>
-  </si>
-  <si>
-    <t>_安江市北部的一个小公园，这里由不受天气影响，四季长春。</t>
-  </si>
-  <si>
-    <t>区域-和平酒店大厦第二章</t>
-  </si>
-  <si>
-    <t>和平酒店</t>
-  </si>
-  <si>
-    <t>_原名为“馥西尔世纪大厦”，3年前作为世界大战停战协议签署地而正式更名。承接H国各种国际会议活动，是各种看重安全的名流政要的下榻点。</t>
-  </si>
-  <si>
-    <t>区域-天目剧院第二章</t>
-  </si>
-  <si>
-    <t>天目剧院</t>
-  </si>
-  <si>
-    <t>_曾经火热的剧院，经常举行魔术表演，如今已经被划分为【警戒区】之一。</t>
-  </si>
-  <si>
-    <t>区域-昭离公馆第二章</t>
-  </si>
-  <si>
-    <t>区域-槐树里小区第二章</t>
-  </si>
-  <si>
-    <t>槐树里小区</t>
-  </si>
-  <si>
-    <t>ui_areas/apartment</t>
-  </si>
-  <si>
-    <t>_尚未被纳入城市翻新计划的老旧小区，居住在这里的也多是一些老年人。</t>
-  </si>
-  <si>
-    <t>区域-顶石大厦</t>
-  </si>
-  <si>
-    <t>顶石大厦</t>
-  </si>
-  <si>
-    <t>ui_areas/dingshi</t>
-  </si>
-  <si>
-    <t>_坐落于CBD的摩天大楼，科技巨头顶石科技总部，总建筑面积30.2万平方米，建筑主体为地上76层，底下3层。</t>
-  </si>
-  <si>
-    <t>区域-第三章</t>
-  </si>
-  <si>
-    <t>区域-昭离公馆第三章</t>
-  </si>
-  <si>
-    <t>地点-鹭华园酒店</t>
-  </si>
-  <si>
-    <t>图郎酒店</t>
-  </si>
-  <si>
-    <t>ui_areas/area3</t>
-  </si>
-  <si>
-    <t>ui_areas/luhuayuan</t>
-  </si>
-  <si>
-    <t>_顶石大厦附近的高档新中式五星级酒店，经常有高端商务人士在此办公。</t>
-  </si>
-  <si>
-    <t>副本-泉舜公寓</t>
-  </si>
-  <si>
-    <t>泉舜公寓</t>
-  </si>
-  <si>
-    <t>ui_areas/area2</t>
-  </si>
-  <si>
-    <t>可获得以下异质物开发材料</t>
-  </si>
-  <si>
-    <t>300101|300102|300103</t>
-  </si>
-  <si>
-    <t>_安江市的【异变区】之一，在被STS管控的状态内</t>
-  </si>
-  <si>
-    <t>副本-金夕养老院</t>
-  </si>
-  <si>
-    <t>今夕养老院</t>
-  </si>
-  <si>
-    <t>副本-珑克酒店</t>
-  </si>
-  <si>
-    <t>珑克酒店</t>
-  </si>
-  <si>
-    <t>300201|300202|300203</t>
-  </si>
-  <si>
-    <t>副本-安江大学圣愚楼</t>
-  </si>
-  <si>
-    <t>圣愚楼</t>
-  </si>
-  <si>
-    <t>副本-港口区-忒休斯号</t>
-  </si>
-  <si>
-    <t>港口区-忒休斯号</t>
-  </si>
-  <si>
-    <t>300301|300302|300303</t>
-  </si>
-  <si>
-    <t>装备-天目剧院</t>
-  </si>
-  <si>
-    <t>ui_areas/theater</t>
-  </si>
-  <si>
-    <t>3101|3102|3103|3104|3105|3106|3107</t>
-  </si>
-  <si>
-    <t>可获得以下共生型异质物</t>
-  </si>
-  <si>
-    <t>500000|500109|500112|500110</t>
-  </si>
-  <si>
-    <t>装备-克雷研究中心</t>
-  </si>
-  <si>
-    <t>克雷研究所</t>
-  </si>
-  <si>
-    <t>ui_areas/kelei</t>
-  </si>
-  <si>
-    <t>3201|3202|3203|3204|3205|3206|3207</t>
-  </si>
-  <si>
-    <t>500000|500116|500115|500118</t>
-  </si>
-  <si>
-    <t>_科研异质物研究所，同时也是【警戒区】之一，负责该研究所的克雷博士却不知所踪。</t>
-  </si>
-  <si>
-    <t>地点-槐树里小区</t>
-  </si>
-  <si>
-    <t>地点-康新嘉苑</t>
-  </si>
-  <si>
-    <t>康新嘉苑</t>
-  </si>
-  <si>
-    <t>ui_areas/jiayuan</t>
-  </si>
-  <si>
-    <t>_声名显赫的康新集团推出的高端酒店式公寓一期，受到了很多年轻人的欢迎。</t>
-  </si>
-  <si>
-    <t>地点-康新雅苑</t>
-  </si>
-  <si>
-    <t>康新雅苑</t>
-  </si>
-  <si>
-    <t>ui_areas/yayuan</t>
-  </si>
-  <si>
-    <t>_声名显赫的康新集团推出的高端酒店式公寓二期，刚一发售就被抢购一空。</t>
-  </si>
-  <si>
-    <t>地点-皇庭金融中心</t>
-  </si>
-  <si>
-    <t>皇庭金融中心</t>
-  </si>
-  <si>
-    <t>ui_areas/huangting</t>
-  </si>
-  <si>
-    <t>_顶石大厦附近的高端经济中心，和顶石大厦有着千丝万缕的联系。</t>
-  </si>
-  <si>
-    <t>地点-昭离公馆</t>
-  </si>
-  <si>
-    <t>XT_昭离公馆</t>
-  </si>
-  <si>
-    <t>XT_江北公园</t>
-  </si>
-  <si>
-    <t>区域-和平酒店大厦</t>
-  </si>
-  <si>
-    <t>XT_和平酒店</t>
-  </si>
-  <si>
-    <t>区域-天目剧院主线场景</t>
-  </si>
-  <si>
-    <t>XT_天目剧院</t>
-  </si>
-  <si>
-    <t>XT_顶石大厦</t>
-  </si>
-  <si>
-    <t>XT_图郎酒店</t>
-  </si>
-  <si>
-    <t>地点-天江壹号别墅</t>
-  </si>
-  <si>
-    <t>XT_天江壹号</t>
-  </si>
-  <si>
-    <t>建于2035年，是不久前刚刚竣工的临江海岸别墅群，安江市各种达官显贵的主要居住地。</t>
-  </si>
-  <si>
-    <t>地点-葡萄日报社</t>
-  </si>
-  <si>
-    <t>XT_葡萄日报社</t>
-  </si>
-  <si>
-    <t>前身为“芒果日报”，战后由原团队重新成立的“葡萄日报社”，主打异质物相关新闻和传说。</t>
-  </si>
-  <si>
-    <t>地点-星屿</t>
-  </si>
-  <si>
-    <t>XT_星屿</t>
-  </si>
-  <si>
-    <t>安江市的地标建筑群，笼罩在特殊的钢化玻璃罩内，是集高端购物，前沿科技/娱乐体验，生态公园，异质物服务体验为一体。安江市政府特许安全的0级-1级异质物使用场景。</t>
-  </si>
-  <si>
-    <t>测试-箱庭地点1</t>
-  </si>
-  <si>
-    <t>XT_箱庭地点1</t>
-  </si>
-  <si>
-    <t>9001 测试-箱庭地点1:箱庭地点1</t>
-  </si>
-  <si>
-    <t>关卡别名</t>
-  </si>
-  <si>
-    <t>所属区域id</t>
-  </si>
-  <si>
-    <t>开启等级</t>
-  </si>
-  <si>
-    <t>关卡名字</t>
-  </si>
-  <si>
-    <t>默认场景名</t>
-  </si>
-  <si>
-    <t>场景背景音乐</t>
-  </si>
-  <si>
-    <t>场景背景音乐音量比例</t>
-  </si>
-  <si>
-    <t>返回roomid</t>
-  </si>
-  <si>
-    <t>返回按钮名称</t>
-  </si>
-  <si>
-    <t>解锁所需线索</t>
-  </si>
-  <si>
-    <t>group_areaId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>scene_name</t>
-  </si>
-  <si>
-    <t>scene_bgm</t>
-  </si>
-  <si>
-    <t>bgm_volumeLevel</t>
-  </si>
-  <si>
-    <t>back_room</t>
-  </si>
-  <si>
-    <t>back_name</t>
-  </si>
-  <si>
-    <t>openClues</t>
-  </si>
-  <si>
-    <t>昭离公馆-地上电梯间</t>
-  </si>
-  <si>
-    <t>电梯间</t>
-  </si>
-  <si>
-    <t>C1_elevator</t>
-  </si>
-  <si>
-    <t>昭离公馆-地下电梯间</t>
-  </si>
-  <si>
-    <t>地下电梯间</t>
-  </si>
-  <si>
-    <t>C1_elevator_basement</t>
-  </si>
-  <si>
-    <t>昭离公馆-异界回廊</t>
-  </si>
-  <si>
-    <t>异界回廊</t>
-  </si>
-  <si>
-    <t>C1_cloister_3D</t>
-  </si>
-  <si>
-    <t>bgm_MythZone</t>
-  </si>
-  <si>
-    <t>昭离公馆-404房间</t>
-  </si>
-  <si>
-    <t>收容间404</t>
-  </si>
-  <si>
-    <t>C1_404_home</t>
-  </si>
-  <si>
-    <t>昭离公馆-凯瑟琳办公室</t>
-  </si>
-  <si>
-    <t>凯瑟琳办公室</t>
-  </si>
-  <si>
-    <t>C1_kaiselin_office</t>
-  </si>
-  <si>
-    <t>昭离公馆-临时用周易房间</t>
-  </si>
-  <si>
-    <t>临时用周易房间</t>
-  </si>
-  <si>
-    <t>C1_Dormitory</t>
-  </si>
-  <si>
-    <t>昭离公馆-杜博士办公室新</t>
-  </si>
-  <si>
-    <t>杜博士办公室</t>
-  </si>
-  <si>
-    <t>C1_du_office</t>
-  </si>
-  <si>
-    <t>序章1</t>
-  </si>
-  <si>
-    <t>C0_kaiselin_office</t>
-  </si>
-  <si>
-    <t>序章2</t>
-  </si>
-  <si>
-    <t>走廊</t>
-  </si>
-  <si>
-    <t>C0_corridor1</t>
-  </si>
-  <si>
-    <t>bgm_Trapped</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>教室</t>
-  </si>
-  <si>
-    <t>C0_du_office</t>
-  </si>
-  <si>
-    <t>序章开始地点</t>
-  </si>
-  <si>
-    <t>序章开头</t>
-  </si>
-  <si>
-    <t>C0_prologue</t>
-  </si>
-  <si>
-    <t>第二章开始-江北公园</t>
-  </si>
-  <si>
     <t>C2_jiangbei_park</t>
   </si>
   <si>
     <t>和平酒店-广场</t>
   </si>
   <si>
-    <t>和平酒店广场</t>
+    <t>酒店外部</t>
   </si>
   <si>
     <t>C2_jiudian_square</t>
@@ -753,21 +748,12 @@
     <t>和平酒店-大堂</t>
   </si>
   <si>
-    <t>和平酒店大堂</t>
+    <t>酒店大堂</t>
   </si>
   <si>
     <t>C2_jiudian_lobby</t>
   </si>
   <si>
-    <t>和平酒店-走廊</t>
-  </si>
-  <si>
-    <t>和平酒店走廊</t>
-  </si>
-  <si>
-    <t>C2_jiudian_corridor</t>
-  </si>
-  <si>
     <t>和平酒店-53层财前毅房间</t>
   </si>
   <si>
@@ -780,7 +766,7 @@
     <t>和平酒店-顶层天台</t>
   </si>
   <si>
-    <t>和平酒店天台</t>
+    <t>酒店天台</t>
   </si>
   <si>
     <t>C2_jiudian_rofftop</t>
@@ -981,42 +967,111 @@
     <t>xt_9001002</t>
   </si>
   <si>
-    <t>鹭华园-大堂</t>
-  </si>
-  <si>
-    <t>酒店大堂</t>
-  </si>
-  <si>
-    <t>C3_luhuayuan_lobby</t>
-  </si>
-  <si>
-    <t>鹭华园-走廊</t>
+    <t>图朗-大堂</t>
+  </si>
+  <si>
+    <t>C3_tulang_lobby</t>
+  </si>
+  <si>
+    <t>图朗-走廊</t>
   </si>
   <si>
     <t>酒店走廊</t>
   </si>
   <si>
-    <t>C3_luhuayuan_corridor</t>
-  </si>
-  <si>
-    <t>鹭华园-总统套房</t>
+    <t>C3_tulang_corridor</t>
+  </si>
+  <si>
+    <t>图朗-总统套房</t>
   </si>
   <si>
     <t>总统套房</t>
   </si>
   <si>
-    <t>C3_luhuayuan_presidential_suite</t>
+    <t>C3_tulang_presidential</t>
   </si>
   <si>
     <t>apartment</t>
   </si>
   <si>
+    <t>副本-泉舜公寓1</t>
+  </si>
+  <si>
+    <t>一号楼</t>
+  </si>
+  <si>
+    <t>maze_101</t>
+  </si>
+  <si>
+    <t>副本-泉舜公寓2</t>
+  </si>
+  <si>
+    <t>二号楼</t>
+  </si>
+  <si>
+    <t>maze_102</t>
+  </si>
+  <si>
+    <t>副本-泉舜公寓3</t>
+  </si>
+  <si>
+    <t>三号楼</t>
+  </si>
+  <si>
+    <t>maze_103</t>
+  </si>
+  <si>
     <t>jin_oldhome</t>
   </si>
   <si>
+    <t>副本-金夕养老院1</t>
+  </si>
+  <si>
+    <t>左侧走廊</t>
+  </si>
+  <si>
+    <t>maze_201</t>
+  </si>
+  <si>
+    <t>副本-金夕养老院2</t>
+  </si>
+  <si>
+    <t>前方走廊</t>
+  </si>
+  <si>
+    <t>maze_202</t>
+  </si>
+  <si>
+    <t>副本-金夕养老院3</t>
+  </si>
+  <si>
+    <t>地下暗门</t>
+  </si>
+  <si>
+    <t>maze_203</t>
+  </si>
+  <si>
     <t>long_wineshop</t>
   </si>
   <si>
+    <t>副本-珑克酒店1</t>
+  </si>
+  <si>
+    <t>A区</t>
+  </si>
+  <si>
+    <t>maze_301</t>
+  </si>
+  <si>
+    <t>副本-珑克酒店2</t>
+  </si>
+  <si>
+    <t>B区</t>
+  </si>
+  <si>
+    <t>maze_302</t>
+  </si>
+  <si>
     <t>anjiang_university</t>
   </si>
   <si>
@@ -1026,25 +1081,40 @@
     <t>theater</t>
   </si>
   <si>
-    <t>玩法-克雷研究中心</t>
+    <t>装备-天目剧院内部</t>
+  </si>
+  <si>
+    <t>后台</t>
+  </si>
+  <si>
+    <t>maze_2</t>
   </si>
   <si>
     <t>kelei</t>
   </si>
   <si>
-    <t>槐树里小区-门口</t>
+    <t>装备-克雷研究中心内部</t>
+  </si>
+  <si>
+    <t>内部</t>
+  </si>
+  <si>
+    <t>maze_3</t>
+  </si>
+  <si>
+    <t>箱庭-槐树里小区-门口</t>
   </si>
   <si>
     <t>XT_Huaishuli_menkou</t>
   </si>
   <si>
-    <t>槐树里小区-走廊</t>
+    <t>箱庭-槐树里小区-走廊</t>
   </si>
   <si>
     <t>XT_Huaishuli_zoulang</t>
   </si>
   <si>
-    <t>槐树里小区-房间1（谷月家）</t>
+    <t>箱庭-槐树里小区-房间1（谷月家）</t>
   </si>
   <si>
     <t>谷月家</t>
@@ -1053,19 +1123,19 @@
     <t>XT_Huaishuli_fangjian1</t>
   </si>
   <si>
-    <t>康新嘉苑-门口</t>
+    <t>箱庭-康新嘉苑-门口</t>
   </si>
   <si>
     <t>XT_HuaishuliB_menkou</t>
   </si>
   <si>
-    <t>康新嘉苑-走廊</t>
+    <t>箱庭-康新嘉苑-走廊</t>
   </si>
   <si>
     <t>XT_HuaishuliB_zoulang</t>
   </si>
   <si>
-    <t>康新嘉苑-实验室</t>
+    <t>箱庭-康新嘉苑-实验室</t>
   </si>
   <si>
     <t>隐秘的实验室</t>
@@ -1074,7 +1144,7 @@
     <t>XT_HuaishuliB_institute</t>
   </si>
   <si>
-    <t>康新嘉苑-房间</t>
+    <t>箱庭-康新嘉苑-房间</t>
   </si>
   <si>
     <t>房间</t>
@@ -1083,13 +1153,13 @@
     <t>XT_HuaishuliB_fangjian2</t>
   </si>
   <si>
-    <t>康新雅苑-门口</t>
+    <t>箱庭-康新雅苑-门口</t>
   </si>
   <si>
     <t>XT_Kangxin_menkou</t>
   </si>
   <si>
-    <t>康新雅苑-住宅</t>
+    <t>箱庭-康新雅苑-住宅</t>
   </si>
   <si>
     <t>住宅</t>
@@ -1098,7 +1168,7 @@
     <t>XT_Kangxin_fangjian</t>
   </si>
   <si>
-    <t>康新雅苑-街道</t>
+    <t>箱庭-康新雅苑-街道</t>
   </si>
   <si>
     <t>街道</t>
@@ -1107,13 +1177,13 @@
     <t>XT_Kangxin_jiedao</t>
   </si>
   <si>
-    <t>康新雅苑-走廊</t>
+    <t>箱庭-康新雅苑-走廊</t>
   </si>
   <si>
     <t>XT_Kangxin_zoulang</t>
   </si>
   <si>
-    <t>皇庭金融中心_前台</t>
+    <t>箱庭-皇庭金融中心_前台</t>
   </si>
   <si>
     <t>前台</t>
@@ -1122,7 +1192,7 @@
     <t>XT_Huangting_qiantai</t>
   </si>
   <si>
-    <t>皇庭金融中心_办公室</t>
+    <t>箱庭-皇庭金融中心_办公室</t>
   </si>
   <si>
     <t>办公室</t>
@@ -1131,7 +1201,7 @@
     <t>XT_Huangting_office</t>
   </si>
   <si>
-    <t>皇庭金融中心_楼下</t>
+    <t>箱庭-皇庭金融中心_楼下</t>
   </si>
   <si>
     <t>楼下</t>
@@ -1140,7 +1210,7 @@
     <t>XT_Huangting_louxia</t>
   </si>
   <si>
-    <t>昭离公馆-大厅</t>
+    <t>箱庭-昭离公馆-大厅</t>
   </si>
   <si>
     <t>大厅</t>
@@ -1149,10 +1219,13 @@
     <t>XT_Zhaoli_elevator</t>
   </si>
   <si>
+    <t>箱庭-昭离公馆-杜博士办公室</t>
+  </si>
+  <si>
     <t>XT_Zhaoli_du_office</t>
   </si>
   <si>
-    <t>临时作战室</t>
+    <t>箱庭-临时作战室</t>
   </si>
   <si>
     <t>作战室</t>
@@ -1161,10 +1234,13 @@
     <t>XT_operation_office</t>
   </si>
   <si>
+    <t>箱庭-昭离公馆-异界回廊</t>
+  </si>
+  <si>
     <t>XT_Zhaoli_cloister</t>
   </si>
   <si>
-    <t>昭离公馆-2-909房间前</t>
+    <t>箱庭-昭离公馆-2-909房间前</t>
   </si>
   <si>
     <t>2-909房间前</t>
@@ -1173,63 +1249,123 @@
     <t>XT_Zhaoli_cloister_2_209</t>
   </si>
   <si>
+    <t>箱庭-昭离公馆-凯瑟琳办公室</t>
+  </si>
+  <si>
     <t>XT_Zhaoli_kaiselin_office</t>
   </si>
   <si>
-    <t>XT_jiangbei_park</t>
+    <t>箱庭-镜潮湖公园-入口</t>
+  </si>
+  <si>
+    <t>XT_jingchaohu_park_enter</t>
+  </si>
+  <si>
+    <t>箱庭-镜潮湖公园-内部</t>
+  </si>
+  <si>
+    <t>XT_jingchaohu_park</t>
+  </si>
+  <si>
+    <t>箱庭-和平酒店-广场</t>
   </si>
   <si>
     <t>XT_jiudian_square</t>
   </si>
   <si>
+    <t>箱庭-和平酒店-大堂</t>
+  </si>
+  <si>
     <t>XT_jiudian_lobby</t>
   </si>
   <si>
+    <t>箱庭-和平酒店-顶层天台</t>
+  </si>
+  <si>
     <t>XT_jiudian_rofftop</t>
   </si>
   <si>
+    <t>箱庭-和平酒店-特别房间</t>
+  </si>
+  <si>
     <t>XT_special_room</t>
   </si>
   <si>
+    <t>箱庭-天目剧院-大堂</t>
+  </si>
+  <si>
     <t>XT_juyuan_lobby</t>
   </si>
   <si>
+    <t>箱庭-天目剧院-土山奥房间</t>
+  </si>
+  <si>
     <t>XT_juyuan_room</t>
   </si>
   <si>
+    <t>箱庭-顶石大厦-前台</t>
+  </si>
+  <si>
     <t>XT_dingshi_reception</t>
   </si>
   <si>
+    <t>箱庭-顶石大厦-75层走廊</t>
+  </si>
+  <si>
     <t>XT_dingshi_75corridor</t>
   </si>
   <si>
+    <t>箱庭-顶石大厦-漆异之工作室</t>
+  </si>
+  <si>
     <t>XT_dingshi_QYZ_office_dark</t>
   </si>
   <si>
+    <t>箱庭-顶石大厦-生物实验室</t>
+  </si>
+  <si>
     <t>XT_dingshi_laboratory</t>
   </si>
   <si>
+    <t>箱庭-顶石大厦-75层休息区</t>
+  </si>
+  <si>
     <t>XT_dingshi_resting</t>
   </si>
   <si>
     <t>返回走廊</t>
   </si>
   <si>
+    <t>箱庭-顶石大厦-76层</t>
+  </si>
+  <si>
     <t>XT_dingshi_ServerCenter</t>
   </si>
   <si>
+    <t>箱庭-顶石大厦-机房</t>
+  </si>
+  <si>
     <t>XT_dingshi_machineroom</t>
   </si>
   <si>
+    <t>箱庭-顶石大厦-外部</t>
+  </si>
+  <si>
     <t>XT_dingshi_outside</t>
   </si>
   <si>
+    <t>箱庭-天江壹号别墅大厅</t>
+  </si>
+  <si>
     <t>天江壹号别墅大厅</t>
   </si>
   <si>
     <t>XT_tianjiang_lobby</t>
   </si>
   <si>
+    <t>箱庭-天江壹号别墅走廊</t>
+  </si>
+  <si>
     <t>天江壹号别墅走廊</t>
   </si>
   <si>
@@ -1239,104 +1375,61 @@
     <t>返回大厅</t>
   </si>
   <si>
+    <t>箱庭-天江壹号别墅房间</t>
+  </si>
+  <si>
     <t>天江壹号别墅房间</t>
   </si>
   <si>
     <t>XT_tianjiang_room</t>
   </si>
   <si>
+    <t>箱庭-迷之赌场</t>
+  </si>
+  <si>
+    <t>谜之赌场</t>
+  </si>
+  <si>
+    <t>XT_tianjiang_room2</t>
+  </si>
+  <si>
+    <t>箱庭-葡萄日报社前台</t>
+  </si>
+  <si>
     <t>葡萄日报社前台</t>
   </si>
   <si>
     <t>XT_putao_reception</t>
   </si>
   <si>
+    <t>箱庭-葡萄日报社办公室</t>
+  </si>
+  <si>
     <t>葡萄日报社办公室</t>
   </si>
   <si>
     <t>XT_putao_office</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>星屿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中央大道</t>
-    </r>
-  </si>
-  <si>
-    <t>中央大道</t>
-  </si>
-  <si>
-    <t>XT_xingyu_center</t>
-  </si>
-  <si>
-    <t>星屿-商业街</t>
-  </si>
-  <si>
-    <t>商业街</t>
-  </si>
-  <si>
-    <t>XT_xingyu_shop</t>
-  </si>
-  <si>
-    <t>返回中央大道</t>
-  </si>
-  <si>
-    <t>星屿-白鹭湖岸边</t>
-  </si>
-  <si>
-    <t>白鹭湖岸边</t>
-  </si>
-  <si>
-    <t>XT_xingyu_side</t>
-  </si>
-  <si>
-    <t>星屿-白鹭森林公园</t>
-  </si>
-  <si>
-    <t>白鹭森林公园</t>
-  </si>
-  <si>
-    <t>XT_xingyu_park</t>
-  </si>
-  <si>
-    <t>返回岸边</t>
-  </si>
-  <si>
-    <t>XT_luhuayuan_lobby</t>
-  </si>
-  <si>
-    <t>XT_luhuayuan_corridor</t>
+    <t>箱庭-图朗-大堂</t>
+  </si>
+  <si>
+    <t>XT_tulang_lobby</t>
+  </si>
+  <si>
+    <t>箱庭-图朗-走廊</t>
+  </si>
+  <si>
+    <t>XT_tulang_corridor</t>
   </si>
   <si>
     <t>返回大堂</t>
   </si>
   <si>
-    <t>XT_luhuayuan_presidential_suite</t>
+    <t>箱庭-图朗-总统套房</t>
+  </si>
+  <si>
+    <t>XT_tulang_presidential</t>
   </si>
   <si>
     <t>roomId</t>
@@ -1410,12 +1503,6 @@
     <t>装备副本1</t>
   </si>
   <si>
-    <t>maze_2</t>
-  </si>
-  <si>
-    <t>maze_3</t>
-  </si>
-  <si>
     <t>maze_4</t>
   </si>
   <si>
@@ -1455,55 +1542,28 @@
     <t>0;maze_101_1;11;1010|0;maze_101_2;11;1011</t>
   </si>
   <si>
-    <t>maze_101</t>
-  </si>
-  <si>
-    <t>一号楼</t>
-  </si>
-  <si>
     <t>0;maze_102_1;11;1010|0;maze_102_2;11;1012</t>
   </si>
   <si>
-    <t>maze_102</t>
-  </si>
-  <si>
-    <t>二号楼</t>
-  </si>
-  <si>
-    <t>maze_103</t>
-  </si>
-  <si>
-    <t>三号楼</t>
-  </si>
-  <si>
     <t>0;maze_201_1;11;1020</t>
   </si>
   <si>
-    <t>maze_201</t>
-  </si>
-  <si>
     <t>入口1</t>
   </si>
   <si>
     <t>0;maze_202_1;11;0|0;maze_202_2;11;0|0;maze_202_3;11;0|0;maze_202_4;11;0|0;maze_202_5;11;0</t>
   </si>
   <si>
-    <t>maze_202</t>
-  </si>
-  <si>
     <t>入口2</t>
   </si>
   <si>
-    <t>maze_203</t>
-  </si>
-  <si>
     <t>地道</t>
   </si>
   <si>
-    <t>maze_301</t>
-  </si>
-  <si>
-    <t>maze_302</t>
+    <t>0;maze_301_1;11;1031|0;maze_301_2;11;1031|0;maze_301_3;11;1031</t>
+  </si>
+  <si>
+    <t>0;maze_302_1;11;1033|0;maze_302_5;11;1033|0;maze_302_3;11;1034|0;maze_302_2;11;0</t>
   </si>
   <si>
     <t>maze_303</t>
@@ -1527,6 +1587,21 @@
     <t>1|3</t>
   </si>
   <si>
+    <t>和平酒店广场</t>
+  </si>
+  <si>
+    <t>和平酒店大堂</t>
+  </si>
+  <si>
+    <t>C2_jiudian_corridor</t>
+  </si>
+  <si>
+    <t>和平酒店走廊</t>
+  </si>
+  <si>
+    <t>和平酒店天台</t>
+  </si>
+  <si>
     <t>槐树里小区某个居民楼内</t>
   </si>
   <si>
@@ -1578,6 +1653,12 @@
     <t>_新中式装修的顶级套房，红木家具看起来价格不菲...</t>
   </si>
   <si>
+    <t>operation_office</t>
+  </si>
+  <si>
+    <t>第一章结束后串联用主界面</t>
+  </si>
+  <si>
     <t>_安江市的【异变区】之一，在被昭离公馆管控的状态内</t>
   </si>
   <si>
@@ -1587,10 +1668,61 @@
     <t>_科研异质物研究中心，但他们对处理一些异质物的暴走问题，有些束手无策，于是，他们承诺如果昭离公馆如果可以定期进行协助，他们倒是很愿意分享自己的研究成果。</t>
   </si>
   <si>
+    <t>槐树里小区-门口</t>
+  </si>
+  <si>
+    <t>槐树里小区-走廊</t>
+  </si>
+  <si>
+    <t>槐树里小区-房间1（谷月家）</t>
+  </si>
+  <si>
+    <t>康新嘉苑-门口</t>
+  </si>
+  <si>
+    <t>康新嘉苑-走廊</t>
+  </si>
+  <si>
+    <t>康新嘉苑-实验室</t>
+  </si>
+  <si>
     <t>康新嘉苑-房间2</t>
   </si>
   <si>
+    <t>康新雅苑-门口</t>
+  </si>
+  <si>
+    <t>康新雅苑-住宅</t>
+  </si>
+  <si>
+    <t>康新雅苑-街道</t>
+  </si>
+  <si>
+    <t>康新雅苑-走廊</t>
+  </si>
+  <si>
+    <t>皇庭金融中心_前台</t>
+  </si>
+  <si>
+    <t>皇庭金融中心_办公室</t>
+  </si>
+  <si>
+    <t>皇庭金融中心_楼下</t>
+  </si>
+  <si>
     <t>1;xt_niefei;11;0</t>
+  </si>
+  <si>
+    <t>昭离公馆-大厅</t>
+  </si>
+  <si>
+    <t>昭离公馆-2-909房间前</t>
+  </si>
+  <si>
+    <t>镜潮湖公园-入口</t>
+  </si>
+  <si>
+    <t>镜潮湖公园-内部</t>
   </si>
   <si>
     <t>2;heping_dianti;0;0</t>
@@ -1651,6 +1783,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF1F2329"/>
       <name val="宋体"/>
@@ -1667,11 +1806,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1680,12 +1820,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1737,7 +1871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79976805932798245"/>
+        <fgColor theme="3" tint="0.79967650379955446"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,7 +1950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1949,6 +2083,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1967,7 +2104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1985,7 +2122,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2003,9 +2140,6 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2016,6 +2150,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2399,19 +2536,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="47" customWidth="1"/>
     <col min="3" max="3" width="12" style="17" customWidth="1"/>
     <col min="4" max="4" width="32.25" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
@@ -2611,7 +2748,7 @@
       <c r="M4" s="6">
         <v>1</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="50" t="s">
         <v>41</v>
       </c>
       <c r="Q4">
@@ -2646,7 +2783,7 @@
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="Q5">
@@ -2682,7 +2819,7 @@
       <c r="M6">
         <v>20</v>
       </c>
-      <c r="P6" s="49" t="s">
+      <c r="P6" s="50" t="s">
         <v>46</v>
       </c>
       <c r="Q6">
@@ -2717,7 +2854,7 @@
       <c r="M7">
         <v>21</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="50" t="s">
         <v>49</v>
       </c>
       <c r="Q7">
@@ -2731,7 +2868,7 @@
       <c r="B8" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="47" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -2763,10 +2900,10 @@
       <c r="A9" s="6">
         <v>23</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="61" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
@@ -2787,13 +2924,13 @@
       <c r="M9" s="6">
         <v>1</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="61" t="s">
         <v>41</v>
       </c>
       <c r="Q9" s="36">
         <v>23001</v>
       </c>
-      <c r="T9" s="60"/>
+      <c r="T9" s="61"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -2802,7 +2939,7 @@
       <c r="B10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="47" t="s">
         <v>55</v>
       </c>
       <c r="D10" t="s">
@@ -2834,10 +2971,10 @@
       <c r="A11">
         <v>31</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="47" t="s">
         <v>59</v>
       </c>
       <c r="D11" t="s">
@@ -2893,7 +3030,7 @@
       <c r="M12">
         <v>31</v>
       </c>
-      <c r="P12" s="46" t="s">
+      <c r="P12" s="47" t="s">
         <v>61</v>
       </c>
       <c r="Q12">
@@ -2904,10 +3041,10 @@
       <c r="A13">
         <v>33</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="61" t="s">
         <v>38</v>
       </c>
       <c r="D13" t="s">
@@ -2928,28 +3065,28 @@
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="61" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="36">
         <v>33002</v>
       </c>
-      <c r="T13" s="60"/>
+      <c r="T13" s="61"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>34</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="59" t="s">
         <v>67</v>
       </c>
       <c r="G14">
@@ -2964,7 +3101,7 @@
       <c r="M14">
         <v>34</v>
       </c>
-      <c r="P14" s="46" t="s">
+      <c r="P14" s="47" t="s">
         <v>68</v>
       </c>
       <c r="Q14">
@@ -2975,10 +3112,10 @@
       <c r="A15" s="3">
         <v>1001</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>70</v>
       </c>
       <c r="D15" t="s">
@@ -3014,16 +3151,16 @@
       <c r="Q15" s="3">
         <v>1001001</v>
       </c>
-      <c r="T15" s="67"/>
+      <c r="T15" s="68"/>
     </row>
     <row r="16" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>1002</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>76</v>
       </c>
       <c r="D16" t="s">
@@ -3059,16 +3196,16 @@
       <c r="Q16" s="3">
         <v>1002001</v>
       </c>
-      <c r="T16" s="67"/>
+      <c r="T16" s="68"/>
     </row>
     <row r="17" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>1003</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="52" t="s">
         <v>78</v>
       </c>
       <c r="D17" t="s">
@@ -3104,16 +3241,16 @@
       <c r="Q17" s="3">
         <v>1003001</v>
       </c>
-      <c r="T17" s="67"/>
+      <c r="T17" s="68"/>
     </row>
     <row r="18" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>1004</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="52" t="s">
         <v>81</v>
       </c>
       <c r="D18" t="s">
@@ -3149,16 +3286,16 @@
       <c r="Q18" s="3">
         <v>1004001</v>
       </c>
-      <c r="T18" s="67"/>
+      <c r="T18" s="68"/>
     </row>
     <row r="19" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>1005</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
@@ -3194,16 +3331,16 @@
       <c r="Q19" s="3">
         <v>1005001</v>
       </c>
-      <c r="T19" s="67"/>
+      <c r="T19" s="68"/>
     </row>
     <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>2002</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="53" t="s">
         <v>51</v>
       </c>
       <c r="D20" t="s">
@@ -3242,16 +3379,16 @@
       <c r="Q20" s="4">
         <v>2002001</v>
       </c>
-      <c r="T20" s="59"/>
+      <c r="T20" s="60"/>
     </row>
     <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>2003</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="53" t="s">
         <v>91</v>
       </c>
       <c r="D21" t="s">
@@ -3290,7 +3427,7 @@
       <c r="Q21" s="4">
         <v>2003001</v>
       </c>
-      <c r="T21" s="59"/>
+      <c r="T21" s="60"/>
     </row>
     <row r="22" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="63">
@@ -3413,8 +3550,8 @@
       <c r="E25" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="63">
-        <v>6</v>
+      <c r="H25" s="63">
+        <v>31</v>
       </c>
       <c r="I25" s="63">
         <v>2</v>
@@ -3436,11 +3573,11 @@
       <c r="A26" s="36">
         <v>5010</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>110</v>
+      <c r="C26" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -3460,23 +3597,23 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="P26" s="60" t="s">
+      <c r="P26" s="61" t="s">
         <v>41</v>
       </c>
       <c r="Q26" s="36">
         <v>5010001</v>
       </c>
-      <c r="T26" s="60"/>
+      <c r="T26" s="61"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5020</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>43</v>
+      <c r="B27" s="67" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -3485,7 +3622,7 @@
         <v>45</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -3496,7 +3633,7 @@
       <c r="M27">
         <v>20</v>
       </c>
-      <c r="P27" s="49" t="s">
+      <c r="P27" s="50" t="s">
         <v>46</v>
       </c>
       <c r="Q27">
@@ -3508,10 +3645,10 @@
         <v>5021</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -3519,8 +3656,8 @@
       <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="G28">
-        <v>1</v>
+      <c r="H28">
+        <v>21</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -3531,7 +3668,7 @@
       <c r="M28">
         <v>21</v>
       </c>
-      <c r="P28" s="49" t="s">
+      <c r="P28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="Q28">
@@ -3540,22 +3677,22 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>5022</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>115</v>
+        <v>5031</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>31</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -3564,33 +3701,33 @@
         <v>2</v>
       </c>
       <c r="M29">
-        <v>22</v>
-      </c>
-      <c r="P29" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="Q29">
-        <v>5022001</v>
+        <v>5031001</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>5031</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>116</v>
+        <v>5034</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
       </c>
-      <c r="E30" t="s">
-        <v>60</v>
+      <c r="E30" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -3599,33 +3736,33 @@
         <v>2</v>
       </c>
       <c r="M30">
-        <v>31</v>
-      </c>
-      <c r="P30" s="29" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="P30" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="Q30">
-        <v>5031001</v>
+        <v>5034001</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>5034</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>117</v>
+        <v>5101</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31">
-        <v>99</v>
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>21</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -3634,24 +3771,24 @@
         <v>2</v>
       </c>
       <c r="M31">
-        <v>34</v>
-      </c>
-      <c r="P31" s="46" t="s">
-        <v>68</v>
+        <v>5101</v>
+      </c>
+      <c r="P31" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="Q31">
-        <v>5034001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+        <v>5101001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="B32" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="D32" t="s">
         <v>66</v>
@@ -3659,8 +3796,8 @@
       <c r="E32" t="s">
         <v>45</v>
       </c>
-      <c r="G32">
-        <v>1</v>
+      <c r="H32">
+        <v>21</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -3669,24 +3806,24 @@
         <v>2</v>
       </c>
       <c r="M32">
-        <v>5101</v>
-      </c>
-      <c r="P32" s="49" t="s">
+        <v>5102</v>
+      </c>
+      <c r="P32" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q32">
+        <v>5102001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>9001</v>
+      </c>
+      <c r="B33" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="Q32">
-        <v>5101001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>5102</v>
-      </c>
-      <c r="B33" s="29" t="s">
+      <c r="C33" s="64" t="s">
         <v>121</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>122</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -3694,136 +3831,76 @@
       <c r="E33" t="s">
         <v>45</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="I33">
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
         <v>2</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="6">
         <v>2</v>
       </c>
-      <c r="M33">
-        <v>5102</v>
-      </c>
-      <c r="P33" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q33">
-        <v>5102001</v>
+      <c r="M33" s="6">
+        <v>9001</v>
+      </c>
+      <c r="P33" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>9001001</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>5103</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="M34">
-        <v>5103</v>
-      </c>
-      <c r="P34" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q34">
-        <v>5103001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
-        <v>9001</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6">
-        <v>2</v>
-      </c>
-      <c r="J35" s="6">
-        <v>2</v>
-      </c>
-      <c r="M35" s="6">
-        <v>9001</v>
-      </c>
-      <c r="P35" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>9001001</v>
-      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="E34" s="59"/>
+      <c r="P34" s="50"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="E35" s="59"/>
+      <c r="P35" s="50"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
-      <c r="E36" s="58"/>
-      <c r="P36" s="49"/>
+      <c r="E36" s="59"/>
+      <c r="P36" s="50"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
-      <c r="E37" s="58"/>
-      <c r="P37" s="49"/>
+      <c r="E37" s="59"/>
+      <c r="P37" s="50"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
-      <c r="E38" s="58"/>
-      <c r="P38" s="49"/>
+      <c r="E38" s="59"/>
+      <c r="P38" s="50"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
-      <c r="E39" s="58"/>
-      <c r="P39" s="49"/>
+      <c r="E39" s="59"/>
+      <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
-      <c r="E40" s="58"/>
-      <c r="P40" s="49"/>
+      <c r="E40" s="59"/>
+      <c r="P40" s="50"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="E41" s="58"/>
-      <c r="P41" s="49"/>
+      <c r="P41" s="50"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="E42" s="58"/>
-      <c r="P42" s="49"/>
+      <c r="P42" s="50"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O43" s="6"/>
+      <c r="P43" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -3836,11 +3913,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3861,34 +3938,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="J1" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="K1" s="55" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="54" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3899,31 +3976,31 @@
         <v>18</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -3954,10 +4031,10 @@
       <c r="I3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="58" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3965,8 +4042,8 @@
       <c r="A4">
         <v>12001</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>148</v>
+      <c r="B4" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -3975,22 +4052,22 @@
         <v>1</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="J4" s="46"/>
+        <v>143</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>12002</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>151</v>
+      <c r="B5" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3999,22 +4076,22 @@
         <v>1</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="J5" s="46"/>
+        <v>146</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>12003</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>154</v>
+      <c r="B6" s="46" t="s">
+        <v>147</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4023,24 +4100,24 @@
         <v>1</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="46"/>
-      <c r="J6" s="46"/>
+        <v>149</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>12004</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>158</v>
+      <c r="B7" s="46" t="s">
+        <v>151</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4049,22 +4126,22 @@
         <v>1</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="J7" s="46"/>
+        <v>153</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>12005</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>161</v>
+      <c r="B8" s="46" t="s">
+        <v>154</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4072,23 +4149,23 @@
       <c r="D8">
         <v>99</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="E8" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>12006</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>164</v>
+      <c r="B9" s="46" t="s">
+        <v>157</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -4096,23 +4173,23 @@
       <c r="D9">
         <v>99</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="E9" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>12007</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>167</v>
+      <c r="B10" s="49" t="s">
+        <v>160</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -4120,23 +4197,23 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="E10" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1001</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>170</v>
+      <c r="B11" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4144,14 +4221,14 @@
       <c r="D11">
         <v>99</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="E11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="17">
         <v>-1</v>
       </c>
@@ -4161,8 +4238,8 @@
       <c r="A12">
         <v>1002</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>172</v>
+      <c r="B12" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4170,17 +4247,17 @@
       <c r="D12">
         <v>99</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>173</v>
+      <c r="E12" s="47" t="s">
+        <v>166</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>175</v>
+        <v>167</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>168</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I12" s="17">
         <v>-1</v>
@@ -4191,8 +4268,8 @@
       <c r="A13">
         <v>1003</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>168</v>
+      <c r="B13" s="46" t="s">
+        <v>161</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4200,14 +4277,14 @@
       <c r="D13">
         <v>99</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>177</v>
+      <c r="E13" s="47" t="s">
+        <v>170</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+        <v>171</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="17">
         <v>-1</v>
       </c>
@@ -4217,8 +4294,8 @@
       <c r="A14">
         <v>1004</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>179</v>
+      <c r="B14" s="46" t="s">
+        <v>172</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4226,14 +4303,14 @@
       <c r="D14">
         <v>99</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>180</v>
+      <c r="E14" s="47" t="s">
+        <v>173</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+        <v>174</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="17">
         <v>-1</v>
       </c>
@@ -4244,7 +4321,7 @@
         <v>20001</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -4253,10 +4330,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -4264,7 +4341,7 @@
         <v>21001</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -4273,10 +4350,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H16"/>
     </row>
@@ -4285,7 +4362,7 @@
         <v>21002</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C17">
         <v>21</v>
@@ -4294,10 +4371,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I17" s="17">
         <v>21001</v>
@@ -4305,10 +4382,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>21003</v>
+        <v>21004</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C18">
         <v>21</v>
@@ -4317,10 +4394,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I18" s="17">
         <v>21002</v>
@@ -4328,10 +4405,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>21004</v>
+        <v>21005</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -4340,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I19" s="17">
         <v>21002</v>
@@ -4351,10 +4428,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>21005</v>
+        <v>21006</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C20">
         <v>21</v>
@@ -4363,10 +4440,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I20" s="17">
         <v>21002</v>
@@ -4374,33 +4451,31 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>21006</v>
+        <v>22001</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="I21" s="17">
-        <v>21002</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="H21"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>22001</v>
+        <v>22002</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -4409,19 +4484,18 @@
         <v>1</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="H22"/>
+        <v>198</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>22002</v>
+        <v>22003</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -4430,61 +4504,62 @@
         <v>1</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>22003</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>208</v>
+        <v>23001</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>202</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>23001</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>211</v>
+        <v>24001</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>204</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>168</v>
+        <v>3</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>205</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="I25" s="17">
-        <v>5010001</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>24001</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>213</v>
+        <v>24002</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -4492,50 +4567,50 @@
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>214</v>
+      <c r="E26" s="47" t="s">
+        <v>208</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
-      <c r="J26" s="49"/>
+      <c r="I26" s="17">
+        <v>24001</v>
+      </c>
+      <c r="J26" s="50"/>
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>24002</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>216</v>
+        <v>31001</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>210</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>217</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>211</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="17">
-        <v>24001</v>
-      </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>31001</v>
+        <v>31002</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C28">
         <v>31</v>
@@ -4543,76 +4618,81 @@
       <c r="D28">
         <v>99</v>
       </c>
-      <c r="E28" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="J28" s="49"/>
+      <c r="E28" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>31002</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>222</v>
+        <v>31003</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>216</v>
       </c>
       <c r="C29">
         <v>31</v>
       </c>
       <c r="D29">
-        <v>99</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="J29" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="17">
+        <v>31001</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>219</v>
+      </c>
       <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>31003</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>225</v>
+        <v>31004</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>220</v>
       </c>
       <c r="C30">
         <v>31</v>
       </c>
       <c r="D30">
-        <v>99</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="17">
-        <v>31001</v>
-      </c>
-      <c r="J30" s="49" t="s">
-        <v>228</v>
+        <v>31003</v>
+      </c>
+      <c r="J30" s="47" t="s">
+        <v>223</v>
       </c>
       <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>31004</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>229</v>
+        <v>31005</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>224</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -4620,28 +4700,23 @@
       <c r="D31">
         <v>99</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="17">
-        <v>31003</v>
-      </c>
-      <c r="J31" s="46" t="s">
-        <v>232</v>
-      </c>
+      <c r="E31" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>31005</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>233</v>
+        <v>31006</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>227</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -4649,23 +4724,28 @@
       <c r="D32">
         <v>99</v>
       </c>
-      <c r="E32" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="E32" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="17">
+        <v>31001</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>219</v>
+      </c>
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>31006</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>236</v>
+        <v>31007</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>230</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -4673,28 +4753,23 @@
       <c r="D33">
         <v>99</v>
       </c>
-      <c r="E33" s="46" t="s">
-        <v>237</v>
+      <c r="E33" s="47" t="s">
+        <v>231</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="17">
-        <v>31001</v>
-      </c>
-      <c r="J33" s="49" t="s">
-        <v>228</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>31007</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>239</v>
+        <v>31008</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="C34">
         <v>31</v>
@@ -4702,47 +4777,48 @@
       <c r="D34">
         <v>99</v>
       </c>
-      <c r="E34" s="46" t="s">
-        <v>240</v>
+      <c r="E34" s="47" t="s">
+        <v>234</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="J34" s="46"/>
+        <v>235</v>
+      </c>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="J34" s="47"/>
       <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>31008</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>242</v>
+        <v>33001</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>236</v>
       </c>
       <c r="C35">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>99</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>237</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="J35" s="46"/>
+        <v>238</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="J35" s="50"/>
       <c r="K35" s="17"/>
+      <c r="M35" s="59"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>33001</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>245</v>
+        <v>33002</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>239</v>
       </c>
       <c r="C36">
         <v>33</v>
@@ -4751,48 +4827,47 @@
         <v>1</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
-      <c r="J36" s="49"/>
+      <c r="J36" s="50"/>
       <c r="K36" s="17"/>
-      <c r="M36" s="58"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M36" s="59"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>33002</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>248</v>
+        <v>9001001</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>242</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>9001</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="J37" s="49"/>
+      <c r="E37" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="17"/>
-      <c r="M37" s="58"/>
-    </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>9001001</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>251</v>
+        <v>9001002</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>245</v>
       </c>
       <c r="C38">
         <v>9001</v>
@@ -4800,47 +4875,46 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="J38" s="46"/>
+      <c r="E38" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="J38" s="47"/>
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>9001002</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>254</v>
+        <v>34001</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="C39">
-        <v>9001</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="17"/>
+      <c r="E39" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>34001</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>257</v>
+        <v>34002</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>250</v>
       </c>
       <c r="C40">
         <v>34</v>
@@ -4848,22 +4922,22 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="46" t="s">
-        <v>258</v>
+      <c r="E40" s="47" t="s">
+        <v>251</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="J40" s="49"/>
+        <v>252</v>
+      </c>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>34002</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>260</v>
+        <v>34003</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>253</v>
       </c>
       <c r="C41">
         <v>34</v>
@@ -4871,45 +4945,44 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="46" t="s">
-        <v>261</v>
+      <c r="E41" s="47" t="s">
+        <v>254</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="J41" s="46"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>34003</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="C42">
-        <v>34</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="J42" s="49"/>
+        <v>255</v>
+      </c>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="J41" s="50"/>
+    </row>
+    <row r="42" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>1001001</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>1001001</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>69</v>
+        <v>1001002</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>257</v>
       </c>
       <c r="C43" s="3">
         <v>1001</v>
@@ -4917,9 +4990,11 @@
       <c r="D43" s="3">
         <v>1</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51" t="s">
-        <v>266</v>
+      <c r="E43" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>259</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -4928,20 +5003,22 @@
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>1002001</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>75</v>
+        <v>1001003</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>260</v>
       </c>
       <c r="C44" s="3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51" t="s">
-        <v>267</v>
+      <c r="E44" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>262</v>
       </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
@@ -4950,20 +5027,22 @@
     </row>
     <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>1003001</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>77</v>
+        <v>1001004</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>263</v>
       </c>
       <c r="C45" s="3">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51" t="s">
-        <v>268</v>
+      <c r="E45" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>265</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
@@ -4972,20 +5051,20 @@
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>1004001</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>80</v>
+        <v>1002001</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="C46" s="3">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51" t="s">
-        <v>269</v>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52" t="s">
+        <v>266</v>
       </c>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
@@ -4994,1194 +5073,1357 @@
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>1005001</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>82</v>
+        <v>1002002</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>267</v>
       </c>
       <c r="C47" s="3">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51" t="s">
-        <v>270</v>
+      <c r="E47" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>269</v>
       </c>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+    <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>1002003</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>1002004</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>1003001</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>1003002</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>1003003</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>1004001</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>1005001</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1005</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="4">
         <v>2002001</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B55" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C55" s="4">
         <v>2002</v>
       </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="59"/>
-    </row>
-    <row r="49" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="60"/>
+    </row>
+    <row r="56" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="4">
+        <v>2002002</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="F56" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="60"/>
+    </row>
+    <row r="57" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="4">
         <v>2003001</v>
       </c>
-      <c r="B49" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="B57" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="4">
         <v>2003</v>
       </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="59"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A50">
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="60"/>
+    </row>
+    <row r="58" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4">
+        <v>2003002</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="60"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59">
         <v>5001001</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50">
+      <c r="B59" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59">
         <v>5001</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A51">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60">
         <v>5001002</v>
       </c>
-      <c r="B51" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C51">
+      <c r="B60" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60">
         <v>5001</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="I51" s="17">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="I60" s="17">
         <v>5001001</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61">
         <v>5001003</v>
       </c>
-      <c r="B52" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C52">
+      <c r="B61" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61">
         <v>5001</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="I52" s="17">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="I61" s="17">
         <v>5001002</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A53">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62">
         <v>5002001</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="C53">
+      <c r="B62" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62">
         <v>5002</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A54">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="29"/>
+      <c r="F62" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63">
         <v>5002002</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C54">
+      <c r="B63" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63">
         <v>5002</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I54" s="17">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="I63" s="17">
         <v>5002001</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64">
         <v>5002003</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="C55">
+      <c r="B64" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64">
         <v>5002</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="I55">
+      <c r="D64">
+        <v>99</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="I64">
         <v>5002002</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A56">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A65">
         <v>5002004</v>
       </c>
-      <c r="B56" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="C56">
+      <c r="B65" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65">
         <v>5002</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="I56" s="17">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="I65" s="17">
         <v>5002002</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A66">
         <v>5003001</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C57">
+      <c r="B66" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C66">
         <v>5003</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A58">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="29"/>
+      <c r="F66" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A67">
         <v>5003002</v>
       </c>
-      <c r="B58" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C58">
+      <c r="B67" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67">
         <v>5003</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="I58" s="17">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="I67" s="17">
         <v>5003004</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A59">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A68">
         <v>5003003</v>
       </c>
-      <c r="B59" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="C59">
+      <c r="B68" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68">
         <v>5003</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="I59" s="17">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="I68" s="17">
         <v>5003001</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A60">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A69">
         <v>5003004</v>
       </c>
-      <c r="B60" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C60">
+      <c r="B69" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69">
         <v>5003</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="I60" s="17">
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I69" s="17">
         <v>5003001</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A61">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A70">
         <v>5004001</v>
       </c>
-      <c r="B61" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="C61">
+      <c r="B70" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C70">
         <v>5004</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>5004002</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="C62">
-        <v>5004</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="I62" s="17">
-        <v>5004001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>5004003</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C63">
-        <v>5004</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="I63" s="17">
-        <v>5004001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="36">
-        <v>5010001</v>
-      </c>
-      <c r="B64" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="C64" s="36">
-        <v>5010</v>
-      </c>
-      <c r="D64" s="36">
-        <v>1</v>
-      </c>
-      <c r="E64" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="F64" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="G64" s="41"/>
-      <c r="I64" s="42"/>
-      <c r="N64" s="60"/>
-      <c r="R64" s="60"/>
-    </row>
-    <row r="65" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="36">
-        <v>5010002</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" s="36">
-        <v>5010</v>
-      </c>
-      <c r="D65" s="36">
-        <v>1</v>
-      </c>
-      <c r="E65" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="F65" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42">
-        <v>5010001</v>
-      </c>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="36">
-        <v>5010003</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="C66" s="36">
-        <v>5010</v>
-      </c>
-      <c r="D66" s="36">
-        <v>1</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="F66" s="60" t="s">
-        <v>316</v>
-      </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-    </row>
-    <row r="67" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="36">
-        <v>5010004</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="36">
-        <v>5010</v>
-      </c>
-      <c r="D67" s="36">
-        <v>1</v>
-      </c>
-      <c r="E67" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42">
-        <v>5010001</v>
-      </c>
-      <c r="J67" s="42"/>
-    </row>
-    <row r="68" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="36">
-        <v>5010005</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="C68" s="36">
-        <v>5010</v>
-      </c>
-      <c r="D68" s="36">
-        <v>1</v>
-      </c>
-      <c r="E68" s="60" t="s">
-        <v>319</v>
-      </c>
-      <c r="F68" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42">
-        <v>5010001</v>
-      </c>
-      <c r="J68" s="42"/>
-    </row>
-    <row r="69" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="36">
-        <v>5010006</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="36">
-        <v>5010</v>
-      </c>
-      <c r="D69" s="36">
-        <v>1</v>
-      </c>
-      <c r="E69" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="F69" s="60" t="s">
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="29" t="s">
         <v>321</v>
-      </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42">
-        <v>5010001</v>
-      </c>
-      <c r="J69" s="42"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>5020001</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70">
-        <v>5020</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>44</v>
       </c>
       <c r="F70" s="19" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>5021001</v>
+        <v>5004002</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="C71">
-        <v>5021</v>
+        <v>5004</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>185</v>
+        <v>324</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+      <c r="I71" s="17">
+        <v>5004001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>5021002</v>
+        <v>5004003</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="C72">
-        <v>5021</v>
+        <v>5004</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>188</v>
+        <v>327</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I72" s="17">
-        <v>5021001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>5021005</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73">
-        <v>5021</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I73" s="17">
-        <v>5021002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>5021006</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74">
-        <v>5021</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="I74" s="17">
-        <v>5021002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>5022001</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75">
-        <v>5022</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>5022002</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C76">
-        <v>5022</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="I76" s="17">
-        <v>5022001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>5031001</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77">
-        <v>5031</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="F77" s="29" t="s">
+        <v>5004001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="36">
+        <v>5010001</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="17"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>5031002</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="C78">
-        <v>5031</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="F78" s="46" t="s">
+      <c r="C73" s="36">
+        <v>5010</v>
+      </c>
+      <c r="D73" s="36">
+        <v>1</v>
+      </c>
+      <c r="E73" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="17">
-        <v>5031001</v>
-      </c>
-      <c r="J78" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="K78" s="17"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F73" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="G73" s="41"/>
+      <c r="I73" s="42"/>
+      <c r="N73" s="61"/>
+      <c r="R73" s="61"/>
+    </row>
+    <row r="74" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="36">
+        <v>5010002</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C74" s="36">
+        <v>5010</v>
+      </c>
+      <c r="D74" s="36">
+        <v>1</v>
+      </c>
+      <c r="E74" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42">
+        <v>5010001</v>
+      </c>
+      <c r="J74" s="42"/>
+    </row>
+    <row r="75" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="36">
+        <v>5010003</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="C75" s="36">
+        <v>5010</v>
+      </c>
+      <c r="D75" s="36">
+        <v>1</v>
+      </c>
+      <c r="E75" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="F75" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+    </row>
+    <row r="76" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="36">
+        <v>5010004</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" s="36">
+        <v>5010</v>
+      </c>
+      <c r="D76" s="36">
+        <v>1</v>
+      </c>
+      <c r="E76" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="G76" s="41"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42">
+        <v>5010001</v>
+      </c>
+      <c r="J76" s="42"/>
+    </row>
+    <row r="77" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="36">
+        <v>5010005</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77" s="36">
+        <v>5010</v>
+      </c>
+      <c r="D77" s="36">
+        <v>99</v>
+      </c>
+      <c r="E77" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="F77" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42">
+        <v>5010001</v>
+      </c>
+      <c r="J77" s="42"/>
+    </row>
+    <row r="78" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="36">
+        <v>5010006</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" s="36">
+        <v>5010</v>
+      </c>
+      <c r="D78" s="36">
+        <v>1</v>
+      </c>
+      <c r="E78" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="G78" s="41"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42">
+        <v>5010001</v>
+      </c>
+      <c r="J78" s="42"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>5031003</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>225</v>
+        <v>5020001</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>344</v>
       </c>
       <c r="C79">
-        <v>5031</v>
+        <v>5020</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="F79" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="17">
-        <v>5031001</v>
-      </c>
-      <c r="J79" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="K79" s="17"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E79" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>5031004</v>
-      </c>
-      <c r="B80" s="44" t="s">
-        <v>229</v>
+        <v>5020002</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>346</v>
       </c>
       <c r="C80">
-        <v>5031</v>
+        <v>5020</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="F80" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
+      <c r="E80" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="I80" s="17">
-        <v>5031001</v>
-      </c>
-      <c r="J80" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="K80" s="17"/>
+        <v>5020001</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>5031005</v>
-      </c>
-      <c r="B81" s="44" t="s">
-        <v>233</v>
+        <v>5021001</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>348</v>
       </c>
       <c r="C81">
-        <v>5031</v>
+        <v>5021</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="17">
-        <v>5031002</v>
-      </c>
-      <c r="J81" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="K81" s="17"/>
+      <c r="E81" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H81"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>5031006</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>236</v>
+        <v>5021002</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="C82">
-        <v>5031</v>
+        <v>5021</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
+      <c r="E82" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="I82" s="17">
-        <v>5031001</v>
-      </c>
-      <c r="J82" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="K82" s="17"/>
+        <v>5021001</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>5031007</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>239</v>
+        <v>5021005</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>352</v>
       </c>
       <c r="C83">
-        <v>5031</v>
+        <v>5021</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
+      <c r="E83" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>353</v>
+      </c>
       <c r="I83" s="17">
-        <v>5031001</v>
-      </c>
-      <c r="J83" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="K83" s="17"/>
+        <v>5021002</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>5031008</v>
-      </c>
-      <c r="B84" s="44" t="s">
-        <v>242</v>
+        <v>5021006</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>354</v>
       </c>
       <c r="C84">
-        <v>5031</v>
+        <v>5021</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="17"/>
+      <c r="E84" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="I84" s="17">
+        <v>5021002</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>5101001</v>
-      </c>
-      <c r="B85" s="43" t="s">
-        <v>338</v>
+        <v>5022001</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>356</v>
       </c>
       <c r="C85">
-        <v>5101</v>
+        <v>5022</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="E85" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>339</v>
-      </c>
+      <c r="E85" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="H85"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>5101002</v>
-      </c>
-      <c r="B86" s="43" t="s">
-        <v>340</v>
+        <v>5022002</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>358</v>
       </c>
       <c r="C86">
-        <v>5101</v>
+        <v>5022</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="E86" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>341</v>
+      <c r="E86" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="I86" s="17">
-        <v>5101001</v>
-      </c>
-      <c r="J86" s="17" t="s">
-        <v>342</v>
+        <v>5022001</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>5101003</v>
-      </c>
-      <c r="B87" s="43" t="s">
-        <v>343</v>
+        <v>5031001</v>
+      </c>
+      <c r="B87" s="46" t="s">
+        <v>360</v>
       </c>
       <c r="C87">
-        <v>5101</v>
+        <v>5031</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="I87" s="17">
-        <v>5101002</v>
-      </c>
-      <c r="J87" s="17" t="s">
-        <v>334</v>
-      </c>
+      <c r="E87" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="17"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>5102001</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>345</v>
+        <v>5031002</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>362</v>
       </c>
       <c r="C88">
-        <v>5102</v>
+        <v>5031</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>346</v>
-      </c>
+      <c r="E88" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F88" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="17">
+        <v>5031001</v>
+      </c>
+      <c r="J88" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="K88" s="17"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>5102002</v>
-      </c>
-      <c r="B89" s="43" t="s">
-        <v>347</v>
+        <v>5031003</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>364</v>
       </c>
       <c r="C89">
-        <v>5102</v>
+        <v>5031</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>348</v>
-      </c>
+      <c r="E89" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F89" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
       <c r="I89" s="17">
-        <v>5102001</v>
-      </c>
-      <c r="J89" s="17" t="s">
-        <v>228</v>
-      </c>
+        <v>5031001</v>
+      </c>
+      <c r="J89" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="K89" s="17"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>5103001</v>
-      </c>
-      <c r="B90" s="62" t="s">
-        <v>349</v>
+        <v>5031004</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>366</v>
       </c>
       <c r="C90">
-        <v>5103</v>
+        <v>5031</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="E90" s="43" t="s">
-        <v>350</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>351</v>
-      </c>
+      <c r="E90" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="17">
+        <v>5031001</v>
+      </c>
+      <c r="J90" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="K90" s="17"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>5103002</v>
-      </c>
-      <c r="B91" s="62" t="s">
-        <v>352</v>
+        <v>5031005</v>
+      </c>
+      <c r="B91" s="45" t="s">
+        <v>368</v>
       </c>
       <c r="C91">
-        <v>5103</v>
+        <v>5031</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>354</v>
-      </c>
+      <c r="E91" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="F91" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
       <c r="I91" s="17">
-        <v>5103001</v>
-      </c>
-      <c r="J91" s="17" t="s">
-        <v>355</v>
-      </c>
+        <v>5031002</v>
+      </c>
+      <c r="J91" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K91" s="17"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>5103003</v>
-      </c>
-      <c r="B92" s="62" t="s">
-        <v>356</v>
+        <v>5031006</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>371</v>
       </c>
       <c r="C92">
-        <v>5103</v>
+        <v>5031</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>358</v>
-      </c>
+      <c r="E92" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
       <c r="I92" s="17">
-        <v>5103001</v>
-      </c>
-      <c r="J92" s="17" t="s">
-        <v>355</v>
-      </c>
+        <v>5031001</v>
+      </c>
+      <c r="J92" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="K92" s="17"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>5103004</v>
-      </c>
-      <c r="B93" s="62" t="s">
-        <v>359</v>
+        <v>5031007</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>373</v>
       </c>
       <c r="C93">
-        <v>5103</v>
+        <v>5031</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>361</v>
-      </c>
+      <c r="E93" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
       <c r="I93" s="17">
-        <v>5103003</v>
-      </c>
-      <c r="J93" s="17" t="s">
-        <v>362</v>
-      </c>
+        <v>5031001</v>
+      </c>
+      <c r="J93" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="K93" s="17"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>5034001</v>
-      </c>
-      <c r="B94" s="44" t="s">
-        <v>257</v>
+        <v>5031008</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>375</v>
       </c>
       <c r="C94">
-        <v>5034</v>
+        <v>5031</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94" s="46" t="s">
-        <v>258</v>
+      <c r="E94" s="47" t="s">
+        <v>234</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="J94" s="49"/>
+        <v>376</v>
+      </c>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="17"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>5034002</v>
+        <v>5101001</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="C95">
-        <v>5034</v>
+        <v>5101</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="17">
-        <v>5034001</v>
-      </c>
-      <c r="J95" s="46" t="s">
-        <v>365</v>
+      <c r="E95" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96">
+        <v>5101002</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96">
+        <v>5101</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="I96" s="17">
+        <v>5101001</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>5101003</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97">
+        <v>5101</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="I97" s="17">
+        <v>5101002</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>5101004</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98">
+        <v>5101</v>
+      </c>
+      <c r="D98">
+        <v>99</v>
+      </c>
+      <c r="E98" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="I98" s="17">
+        <v>5101001</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>5102001</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="C99">
+        <v>5102</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>5102002</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="C100">
+        <v>5102</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="I100" s="17">
+        <v>5102001</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>5034001</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="C101">
+        <v>5034</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="J101" s="50"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>5034002</v>
+      </c>
+      <c r="B102" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="C102">
+        <v>5034</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="17">
+        <v>5034001</v>
+      </c>
+      <c r="J102" s="47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103">
         <v>5034003</v>
       </c>
-      <c r="B96" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="C96">
+      <c r="B103" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="C103">
         <v>5034</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="17">
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="17">
         <v>5034002</v>
       </c>
-      <c r="J96" s="49" t="s">
-        <v>334</v>
+      <c r="J103" s="50" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -6195,10 +6437,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6219,28 +6461,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6248,25 +6490,25 @@
         <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>32</v>
@@ -6283,7 +6525,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>35</v>
@@ -6303,6 +6545,7 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
+        <f t="shared" ref="A4:A35" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -6312,23 +6555,24 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="H4" s="16">
         <v>-1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -6338,41 +6582,43 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="H5" s="16">
         <v>-1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="17" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="H6" s="16">
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="1">
@@ -6380,15 +6626,16 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="17" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="1">
@@ -6396,7 +6643,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="17" t="s">
-        <v>390</v>
+        <v>288</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" t="s">
@@ -6405,6 +6652,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -6412,7 +6660,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="17" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" t="s">
@@ -6421,6 +6669,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="1">
@@ -6428,15 +6677,16 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="17" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="1">
@@ -6444,15 +6694,16 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="17" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -6460,15 +6711,16 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="17" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -6476,15 +6728,16 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="17" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="1">
@@ -6492,15 +6745,16 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="17" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="1">
@@ -6508,102 +6762,108 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="17" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>405</v>
+        <v>259</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" t="s">
-        <v>406</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>408</v>
+        <v>262</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" t="s">
-        <v>409</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>410</v>
+        <v>265</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" t="s">
-        <v>411</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>413</v>
+        <v>269</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>416</v>
+        <v>272</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C21" s="1">
@@ -6611,47 +6871,54 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="17" t="s">
-        <v>418</v>
+        <v>275</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="E22" s="17" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E23" s="17" t="s">
-        <v>421</v>
+        <v>282</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C24" s="1">
@@ -6659,42 +6926,44 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>1001</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="H25" s="16">
         <v>-1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>1002</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G26" s="16">
         <v>3</v>
@@ -6703,18 +6972,19 @@
         <v>-1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>1003</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G27" s="16">
         <v>3</v>
@@ -6723,18 +6993,19 @@
         <v>-1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>12001</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G28" s="16">
         <v>3</v>
@@ -6743,7 +7014,7 @@
         <v>-1</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J28" s="28"/>
       <c r="L28" s="28"/>
@@ -6751,13 +7022,14 @@
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>12002</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G29" s="16">
         <v>3</v>
@@ -6766,7 +7038,7 @@
         <v>-1</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J29" s="28"/>
       <c r="L29" s="28"/>
@@ -6774,13 +7046,14 @@
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>12003</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G30" s="16">
         <v>3</v>
@@ -6789,7 +7062,7 @@
         <v>-1</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J30" s="28"/>
       <c r="L30" s="28"/>
@@ -6797,22 +7070,23 @@
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
         <v>12004</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="H31" s="16">
         <v>-1</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J31" s="28"/>
       <c r="L31" s="28"/>
@@ -6820,13 +7094,14 @@
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>12005</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G32" s="16">
         <v>3</v>
@@ -6835,7 +7110,7 @@
         <v>-1</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J32" s="28"/>
       <c r="L32" s="28"/>
@@ -6843,13 +7118,14 @@
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>12007</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G33" s="16">
         <v>3</v>
@@ -6858,196 +7134,206 @@
         <v>-1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>20001</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="16">
         <v>-1</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>21001</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H35" s="16">
         <v>-1</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>185</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>34</v>
+        <f t="shared" ref="A36:A67" si="1">ROW()-3</f>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>21002</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H36" s="16">
         <v>-1</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>21003</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>192</v>
+        <v>456</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H37" s="16">
         <v>-1</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>191</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>21004</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="H38" s="16">
         <v>-1</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>21005</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H39" s="16">
         <v>-1</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>197</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>22001</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H40" s="16">
         <v>-1</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>22002</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="H41" s="16">
         <v>-1</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>22003</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H42" s="16">
         <v>-1</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>23001</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G43" s="17">
         <v>3</v>
@@ -7056,18 +7342,19 @@
         <v>-1</v>
       </c>
       <c r="I43" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>24001</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G44" s="17">
         <v>3</v>
@@ -7076,18 +7363,19 @@
         <v>-1</v>
       </c>
       <c r="I44" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>24002</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G45" s="17">
         <v>3</v>
@@ -7096,56 +7384,59 @@
         <v>-1</v>
       </c>
       <c r="I45" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>21006</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H46" s="16">
         <v>-1</v>
       </c>
       <c r="I46" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>33001</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16">
         <v>-1</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
         <v>31001</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G48" s="20">
         <v>3</v>
@@ -7154,18 +7445,19 @@
         <v>-1</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="B49" s="1">
         <v>31002</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G49" s="20">
         <v>3</v>
@@ -7174,58 +7466,61 @@
         <v>-1</v>
       </c>
       <c r="I49" s="30" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>31003</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="H50" s="16">
         <v>-1</v>
       </c>
       <c r="I50" s="30" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>49</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="B51" s="1">
         <v>31004</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="H51" s="16">
         <v>-1</v>
       </c>
       <c r="I51" s="30" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="B52" s="1">
         <v>31005</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G52" s="20">
         <v>3</v>
@@ -7234,18 +7529,19 @@
         <v>-1</v>
       </c>
       <c r="I52" s="30" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="B53" s="1">
         <v>31006</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G53" s="20">
         <v>3</v>
@@ -7254,18 +7550,19 @@
         <v>-1</v>
       </c>
       <c r="I53" s="30" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>31007</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G54" s="20">
         <v>3</v>
@@ -7274,32 +7571,34 @@
         <v>-1</v>
       </c>
       <c r="I54" s="30" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
         <v>31008</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H55" s="16">
         <v>-1</v>
       </c>
       <c r="I55" s="30" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="B56" s="2">
         <v>33002</v>
@@ -7307,19 +7606,20 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="21" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="21">
         <v>-1</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
         <v>34001</v>
@@ -7327,7 +7627,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="16" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G57" s="20">
         <v>3</v>
@@ -7336,18 +7636,19 @@
         <v>-1</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <v>34002</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G58" s="20">
         <v>3</v>
@@ -7356,18 +7657,19 @@
         <v>-1</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
         <v>34003</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G59" s="20">
         <v>3</v>
@@ -7376,580 +7678,591 @@
         <v>-1</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1001001</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I60" s="32" t="s">
-        <v>446</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>1002001</v>
+        <v>1001001</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="24" t="s">
-        <v>267</v>
+      <c r="E61" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="24">
         <v>-1</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>1003001</v>
+        <v>1002001</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="24">
         <v>-1</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>1004001</v>
+        <v>1003001</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="24" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="24">
         <v>-1</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>1005001</v>
+        <v>1004001</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="24" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="24">
         <v>-1</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="4">
-        <v>2002001</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G65" s="33"/>
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1005001</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G65" s="23"/>
       <c r="H65" s="24">
         <v>-1</v>
       </c>
-      <c r="I65" s="39" t="s">
-        <v>447</v>
+      <c r="I65" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="B66" s="4">
-        <v>2003001</v>
+        <v>2002001</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66"/>
       <c r="E66" s="33" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="34">
+      <c r="H66" s="24">
         <v>-1</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>5001001</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2003001</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67"/>
-      <c r="E67" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F67"/>
-      <c r="G67" t="s">
-        <v>428</v>
-      </c>
-      <c r="H67" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I67" s="29" t="s">
-        <v>274</v>
+      <c r="E67" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34">
+        <v>-1</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>66</v>
+        <f t="shared" ref="A68:A99" si="2">ROW()-3</f>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>5001002</v>
+        <v>5001001</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68"/>
       <c r="E68" s="19" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H68" s="16">
         <v>-1</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>276</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>66</v>
       </c>
       <c r="B69">
-        <v>5001003</v>
+        <v>5001002</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69"/>
       <c r="E69" s="19" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H69" s="16">
         <v>-1</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>278</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="B70">
-        <v>5002001</v>
+        <v>5001003</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70"/>
       <c r="E70" s="19" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H70" s="16">
         <v>-1</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>281</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>69</v>
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="B71">
-        <v>5002002</v>
+        <v>5002001</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71"/>
       <c r="E71" s="19" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H71" s="16">
         <v>-1</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>283</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="B72">
-        <v>5002003</v>
+        <v>5002002</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72"/>
       <c r="E72" s="19" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H72" s="16">
         <v>-1</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>285</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>5002004</v>
+        <v>5002003</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73"/>
       <c r="E73" s="19" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H73" s="16">
         <v>-1</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
       <c r="B74">
-        <v>5003001</v>
+        <v>5002004</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
+      <c r="D74"/>
       <c r="E74" s="19" t="s">
-        <v>292</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="F74"/>
       <c r="G74" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H74" s="16">
         <v>-1</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>291</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>73</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>5003002</v>
+        <v>5003001</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G75" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H75" s="16">
         <v>-1</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>293</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="B76">
-        <v>5003003</v>
+        <v>5003002</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="G76" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H76" s="16">
         <v>-1</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>296</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="B77">
-        <v>5003004</v>
+        <v>5003003</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="G77" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H77" s="16">
         <v>-1</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>299</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>76</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>5004001</v>
+        <v>5003004</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G78" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H78" s="16">
         <v>-1</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>301</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>77</v>
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
       <c r="B79">
-        <v>5004002</v>
+        <v>5004001</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="G79" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H79" s="16">
         <v>-1</v>
       </c>
       <c r="I79" s="29" t="s">
-        <v>304</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="B80">
-        <v>5004003</v>
+        <v>5004002</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="G80" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H80" s="16">
         <v>-1</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>307</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1">
-        <v>5010001</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>5004003</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" t="s">
-        <v>450</v>
-      </c>
-      <c r="E81" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="F81" s="36"/>
+      <c r="E81" s="19" t="s">
+        <v>328</v>
+      </c>
       <c r="G81" t="s">
-        <v>428</v>
-      </c>
-      <c r="H81" s="37">
-        <v>-1</v>
-      </c>
-      <c r="I81" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="J81" s="41"/>
-      <c r="K81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
+        <v>453</v>
+      </c>
+      <c r="H81" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I81" s="29" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="B82" s="1">
-        <v>5010002</v>
+        <v>5010001</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="E82" s="38" t="s">
-        <v>313</v>
+      <c r="D82" t="s">
+        <v>495</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>331</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H82" s="37">
         <v>-1</v>
       </c>
       <c r="I82" s="40" t="s">
-        <v>211</v>
+        <v>496</v>
       </c>
       <c r="J82" s="41"/>
-      <c r="K82" s="42"/>
-      <c r="M82" s="42"/>
+      <c r="K82" s="36"/>
+      <c r="M82" s="36"/>
       <c r="N82" s="36"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="B83" s="1">
-        <v>5010003</v>
+        <v>5010002</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F83" s="36"/>
       <c r="G83" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H83" s="37">
         <v>-1</v>
       </c>
       <c r="I83" s="40" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="J83" s="41"/>
       <c r="K83" s="42"/>
@@ -7958,26 +8271,27 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="B84" s="1">
-        <v>5010004</v>
+        <v>5010003</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="F84" s="36"/>
       <c r="G84" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H84" s="37">
         <v>-1</v>
       </c>
       <c r="I84" s="40" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="J84" s="41"/>
       <c r="K84" s="42"/>
@@ -7986,26 +8300,27 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="B85" s="1">
-        <v>5010005</v>
+        <v>5010004</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="F85" s="36"/>
       <c r="G85" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H85" s="37">
         <v>-1</v>
       </c>
       <c r="I85" s="40" t="s">
-        <v>318</v>
+        <v>147</v>
       </c>
       <c r="J85" s="41"/>
       <c r="K85" s="42"/>
@@ -8014,26 +8329,27 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>84</v>
+        <f t="shared" si="2"/>
+        <v>83</v>
       </c>
       <c r="B86" s="1">
-        <v>5010006</v>
+        <v>5010005</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F86" s="36"/>
       <c r="G86" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H86" s="37">
         <v>-1</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>161</v>
+        <v>497</v>
       </c>
       <c r="J86" s="41"/>
       <c r="K86" s="42"/>
@@ -8042,704 +8358,712 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
       </c>
       <c r="B87" s="1">
-        <v>5020001</v>
+        <v>5010006</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="E87" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="F87"/>
+      <c r="E87" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="F87" s="36"/>
       <c r="G87" t="s">
-        <v>428</v>
-      </c>
-      <c r="H87" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I87" s="29" t="s">
-        <v>44</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="H87" s="37">
+        <v>-1</v>
+      </c>
+      <c r="I87" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="J87" s="41"/>
+      <c r="K87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="36"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="B88" s="1">
-        <v>5021001</v>
+        <v>5020001</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
+      <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H88" s="16">
         <v>-1</v>
       </c>
       <c r="I88" s="29" t="s">
-        <v>185</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
       <c r="B89" s="1">
-        <v>5021002</v>
+        <v>5020002</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89" t="s">
-        <v>451</v>
-      </c>
       <c r="E89" s="19" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H89" s="16">
         <v>-1</v>
       </c>
       <c r="I89" s="29" t="s">
-        <v>188</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>88</v>
+        <f t="shared" si="2"/>
+        <v>87</v>
       </c>
       <c r="B90" s="1">
-        <v>5021003</v>
+        <v>5021001</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>452</v>
+        <v>349</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H90" s="16">
         <v>-1</v>
       </c>
       <c r="I90" s="29" t="s">
-        <v>191</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>89</v>
+        <f t="shared" si="2"/>
+        <v>88</v>
       </c>
       <c r="B91" s="1">
-        <v>5021005</v>
+        <v>5021002</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
+      <c r="D91" t="s">
+        <v>500</v>
+      </c>
       <c r="E91" s="19" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H91" s="16">
         <v>-1</v>
       </c>
       <c r="I91" s="29" t="s">
-        <v>197</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="B92" s="1">
-        <v>5021006</v>
+        <v>5021003</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>326</v>
+        <v>501</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H92" s="16">
         <v>-1</v>
       </c>
       <c r="I92" s="29" t="s">
-        <v>200</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>91</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="B93" s="1">
-        <v>5022001</v>
+        <v>5021005</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H93" s="16">
         <v>-1</v>
       </c>
       <c r="I93" s="29" t="s">
-        <v>203</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>92</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="B94" s="1">
-        <v>5022002</v>
+        <v>5021006</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H94" s="16">
         <v>-1</v>
       </c>
       <c r="I94" s="29" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>93</v>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="B95" s="1">
-        <v>5031001</v>
+        <v>5022001</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95" t="s">
-        <v>453</v>
-      </c>
       <c r="E95" s="19" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H95" s="16">
         <v>-1</v>
       </c>
       <c r="I95" s="29" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>94</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="B96" s="1">
-        <v>5031002</v>
+        <v>5022002</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H96" s="16">
         <v>-1</v>
       </c>
       <c r="I96" s="29" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>95</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="B97" s="1">
-        <v>5031003</v>
+        <v>5031001</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
+      <c r="D97" t="s">
+        <v>502</v>
+      </c>
       <c r="E97" s="19" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H97" s="16">
         <v>-1</v>
       </c>
       <c r="I97" s="29" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="B98" s="1">
-        <v>5031004</v>
+        <v>5031002</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H98" s="16">
         <v>-1</v>
       </c>
       <c r="I98" s="29" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="B99" s="1">
-        <v>5031005</v>
+        <v>5031003</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H99" s="16">
         <v>-1</v>
       </c>
       <c r="I99" s="29" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>98</v>
+        <f t="shared" ref="A100:A113" si="3">ROW()-3</f>
+        <v>97</v>
       </c>
       <c r="B100" s="1">
-        <v>5031006</v>
+        <v>5031004</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H100" s="16">
         <v>-1</v>
       </c>
       <c r="I100" s="29" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
       <c r="B101" s="1">
-        <v>5031007</v>
+        <v>5031005</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H101" s="16">
         <v>-1</v>
       </c>
       <c r="I101" s="29" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="B102" s="1">
-        <v>5031008</v>
+        <v>5031006</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H102" s="16">
         <v>-1</v>
       </c>
       <c r="I102" s="29" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>5101001</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5031007</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="E103" s="17" t="s">
-        <v>339</v>
+      <c r="E103" s="19" t="s">
+        <v>374</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H103" s="16">
         <v>-1</v>
       </c>
-      <c r="I103" s="43" t="s">
-        <v>338</v>
+      <c r="I103" s="29" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>5101002</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5031008</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="E104" s="17" t="s">
-        <v>341</v>
+      <c r="E104" s="19" t="s">
+        <v>376</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H104" s="16">
         <v>-1</v>
       </c>
-      <c r="I104" s="43" t="s">
-        <v>340</v>
+      <c r="I104" s="29" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>103</v>
+        <f t="shared" si="3"/>
+        <v>102</v>
       </c>
       <c r="B105">
-        <v>5101003</v>
+        <v>5101001</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H105" s="16">
         <v>-1</v>
       </c>
       <c r="I105" s="43" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>103</v>
       </c>
       <c r="B106">
-        <v>5102001</v>
+        <v>5101002</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H106" s="16">
         <v>-1</v>
       </c>
       <c r="I106" s="43" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
       <c r="B107">
-        <v>5102002</v>
+        <v>5101003</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H107" s="16">
         <v>-1</v>
       </c>
       <c r="I107" s="43" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="B108">
-        <v>5103001</v>
+        <v>5101004</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H108" s="16">
         <v>-1</v>
       </c>
-      <c r="I108" s="43" t="s">
-        <v>350</v>
+      <c r="I108" s="44" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>106</v>
       </c>
       <c r="B109">
-        <v>5103002</v>
+        <v>5102001</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H109" s="16">
         <v>-1</v>
       </c>
       <c r="I109" s="43" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
       <c r="B110">
-        <v>5103003</v>
+        <v>5102002</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H110" s="16">
         <v>-1</v>
       </c>
-      <c r="I110" s="29" t="s">
-        <v>357</v>
+      <c r="I110" s="43" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>109</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
       </c>
       <c r="B111">
-        <v>5103004</v>
+        <v>5034001</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
-      <c r="E111" s="17" t="s">
-        <v>361</v>
+      <c r="E111" s="29" t="s">
+        <v>397</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H111" s="16">
         <v>-1</v>
       </c>
-      <c r="I111" s="29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I111" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>5034001</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B112" s="5">
+        <v>5034002</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
+      <c r="D112"/>
       <c r="E112" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="F112"/>
+        <v>399</v>
+      </c>
       <c r="G112" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H112" s="16">
         <v>-1</v>
       </c>
-      <c r="I112" s="44" t="s">
-        <v>257</v>
+      <c r="I112" s="45" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="B113" s="5">
-        <v>5034002</v>
+        <v>5034003</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113"/>
       <c r="E113" s="29" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="G113" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="H113" s="16">
         <v>-1</v>
       </c>
-      <c r="I113" s="44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" s="5">
-        <v>5034003</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114"/>
-      <c r="E114" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="G114" t="s">
-        <v>428</v>
-      </c>
-      <c r="H114" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I114" s="44" t="s">
-        <v>263</v>
+      <c r="I113" s="45" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E59 E1:E3 E116:E1048576 E48:E54 E25:E33">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  <conditionalFormatting sqref="E56:E60 E1:E3 E25:E33 E48:E54 E115:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
